--- a/wedding-bell_design/Wedding Bell Webデザイン1原稿.xlsx
+++ b/wedding-bell_design/Wedding Bell Webデザイン1原稿.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>デザイン1　原稿</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>二次会の出欠確認ブロック</t>
+  </si>
+  <si>
+    <t>返答をお願いする期限</t>
   </si>
   <si>
     <t>デザイン以外に募りたいこと</t>
@@ -1661,7 +1664,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C59"/>
+  <dimension ref="A2:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B5" xSplit="1" ySplit="4" activePane="bottomRight" state="frozen"/>
@@ -2027,7 +2030,9 @@
       <c r="C49" s="12"/>
     </row>
     <row r="50" ht="18.3" customHeight="1">
-      <c r="A50" s="14"/>
+      <c r="A50" t="s" s="10">
+        <v>48</v>
+      </c>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
     </row>
@@ -2046,17 +2051,15 @@
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
     </row>
-    <row r="54" ht="20.35" customHeight="1">
-      <c r="A54" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s" s="15">
+    <row r="54" ht="18.3" customHeight="1">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" ht="20.35" customHeight="1">
+      <c r="A55" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" ht="20.35" customHeight="1">
-      <c r="A55" s="14"/>
       <c r="B55" t="s" s="15">
         <v>50</v>
       </c>
@@ -2089,14 +2092,21 @@
         <v>54</v>
       </c>
       <c r="C59" s="12"/>
+    </row>
+    <row r="60" ht="20.35" customHeight="1">
+      <c r="A60" s="14"/>
+      <c r="B60" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="C60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B58" r:id="rId1" location="" tooltip="" display="https://wedding-bell-web.com"/>
-    <hyperlink ref="B59" r:id="rId2" location="" tooltip="" display="web@wedding-bell-web.com"/>
+    <hyperlink ref="B59" r:id="rId1" location="" tooltip="" display="https://wedding-bell-web.com"/>
+    <hyperlink ref="B60" r:id="rId2" location="" tooltip="" display="web@wedding-bell-web.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2127,7 +2137,7 @@
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2154,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1">
@@ -2222,45 +2232,45 @@
     </row>
     <row r="14" ht="18.3" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
     </row>
     <row r="15" ht="18.3" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
       <c r="A16" t="s" s="13">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
       <c r="A17" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
       <c r="A18" t="s" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
       <c r="A19" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="12"/>
     </row>
@@ -2269,71 +2279,71 @@
         <v>9</v>
       </c>
       <c r="B20" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="12"/>
     </row>
     <row r="21" ht="18.3" customHeight="1">
       <c r="A21" t="s" s="17">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12"/>
     </row>
     <row r="22" ht="18.3" customHeight="1">
       <c r="A22" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="12"/>
     </row>
     <row r="23" ht="33.55" customHeight="1">
       <c r="A23" t="s" s="17">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="12"/>
     </row>
     <row r="24" ht="18.3" customHeight="1">
       <c r="A24" t="s" s="17">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
     </row>
     <row r="25" ht="18.3" customHeight="1">
       <c r="A25" t="s" s="13">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
     </row>
     <row r="26" ht="18.3" customHeight="1">
       <c r="A26" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
     </row>
     <row r="27" ht="18.3" customHeight="1">
       <c r="A27" t="s" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
     </row>
     <row r="28" ht="18.3" customHeight="1">
       <c r="A28" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="12"/>
     </row>
@@ -2342,71 +2352,71 @@
         <v>9</v>
       </c>
       <c r="B29" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="12"/>
     </row>
     <row r="30" ht="18.3" customHeight="1">
       <c r="A30" t="s" s="17">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="12"/>
     </row>
     <row r="31" ht="18.3" customHeight="1">
       <c r="A31" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12"/>
     </row>
     <row r="32" ht="33.55" customHeight="1">
       <c r="A32" t="s" s="17">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="12"/>
     </row>
     <row r="33" ht="18.3" customHeight="1">
       <c r="A33" t="s" s="17">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
     </row>
     <row r="34" ht="18.3" customHeight="1">
       <c r="A34" t="s" s="13">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
     </row>
     <row r="35" ht="18.3" customHeight="1">
       <c r="A35" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
     </row>
     <row r="36" ht="18.3" customHeight="1">
       <c r="A36" t="s" s="17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="18.3" customHeight="1">
       <c r="A37" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="12"/>
     </row>
@@ -2415,54 +2425,54 @@
         <v>9</v>
       </c>
       <c r="B38" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="12"/>
     </row>
     <row r="39" ht="18.3" customHeight="1">
       <c r="A39" t="s" s="17">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="12"/>
     </row>
     <row r="40" ht="18.3" customHeight="1">
       <c r="A40" t="s" s="17">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" s="12"/>
     </row>
     <row r="41" ht="33.55" customHeight="1">
       <c r="A41" t="s" s="17">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" s="12"/>
     </row>
     <row r="42" ht="18.3" customHeight="1">
       <c r="A42" t="s" s="17">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
     </row>
     <row r="43" ht="18.3" customHeight="1">
       <c r="A43" t="s" s="13">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="12"/>
     </row>
     <row r="44" ht="18.3" customHeight="1">
       <c r="A44" t="s" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
@@ -2489,45 +2499,45 @@
     </row>
     <row r="49" ht="20.35" customHeight="1">
       <c r="A49" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s" s="15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="12"/>
     </row>
     <row r="50" ht="20.35" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" t="s" s="15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="12"/>
     </row>
     <row r="51" ht="20.35" customHeight="1">
       <c r="A51" s="14"/>
       <c r="B51" t="s" s="15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" s="12"/>
     </row>
     <row r="52" ht="20.35" customHeight="1">
       <c r="A52" s="14"/>
       <c r="B52" t="s" s="15">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="12"/>
     </row>
     <row r="53" ht="20.35" customHeight="1">
       <c r="A53" s="14"/>
       <c r="B53" t="s" s="15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53" s="12"/>
     </row>
     <row r="54" ht="20.35" customHeight="1">
       <c r="A54" s="14"/>
       <c r="B54" t="s" s="15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="12"/>
     </row>

--- a/wedding-bell_design/Wedding Bell Webデザイン1原稿.xlsx
+++ b/wedding-bell_design/Wedding Bell Webデザイン1原稿.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="ベーシック - デザイン1　原稿" sheetId="1" r:id="rId4"/>
     <sheet name="OP延長 - OP延長1　原稿" sheetId="2" r:id="rId5"/>
+    <sheet name="つなぎページ - つなぎページ　原稿" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>デザイン1　原稿</t>
   </si>
@@ -315,6 +316,36 @@
       </rPr>
       <t>web-admin@wedding-bell-web.com</t>
     </r>
+  </si>
+  <si>
+    <t>つなぎページ　原稿</t>
+  </si>
+  <si>
+    <t>ごあいさつブロック</t>
+  </si>
+  <si>
+    <t>コンテンツお楽しみ予告ブロック</t>
+  </si>
+  <si>
+    <t>背景画像</t>
+  </si>
+  <si>
+    <t>コンテンツ1タイトル</t>
+  </si>
+  <si>
+    <t>コンテンツ1説明文</t>
+  </si>
+  <si>
+    <t>コンテンツ2タイトル</t>
+  </si>
+  <si>
+    <t>コンテンツ2説明文</t>
+  </si>
+  <si>
+    <t>コンテンツ3タイトル</t>
+  </si>
+  <si>
+    <t>コンテンツ3説明文</t>
   </si>
 </sst>
 </file>
@@ -524,7 +555,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -577,6 +608,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2558,4 +2592,247 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B5" xSplit="1" ySplit="4" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25.0156" style="18" customWidth="1"/>
+    <col min="2" max="2" width="63.2188" style="18" customWidth="1"/>
+    <col min="3" max="3" width="26.7734" style="18" customWidth="1"/>
+    <col min="4" max="256" width="16.3516" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.3" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" ht="20.3" customHeight="1">
+      <c r="A3" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" ht="18.5" customHeight="1">
+      <c r="A4" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" ht="18.3" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" ht="18.3" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" t="s" s="13">
+        <v>80</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" ht="33.3" customHeight="1">
+      <c r="A13" t="s" s="13">
+        <v>81</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" t="s" s="17">
+        <v>82</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" t="s" s="17">
+        <v>83</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" t="s" s="17">
+        <v>84</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" t="s" s="17">
+        <v>85</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" t="s" s="17">
+        <v>86</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" t="s" s="17">
+        <v>87</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" t="s" s="17">
+        <v>88</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" ht="18.3" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" ht="18.3" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" ht="18.3" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" ht="18.3" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="15">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" t="s" s="15">
+        <v>52</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" t="s" s="15">
+        <v>53</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" t="s" s="15">
+        <v>54</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" t="s" s="15">
+        <v>78</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" location="" tooltip="" display="https://wedding-bell-web.com"/>
+    <hyperlink ref="B30" r:id="rId2" location="" tooltip="" display="web-admin@wedding-bell-web.com"/>
+  </hyperlinks>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>